--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Intro Fraction Comparison 1.xlsx_with_dialog_acts.xlsx
@@ -843,12 +843,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1037,12 +1037,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1249,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1959,12 +1959,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
